--- a/FMEA.xlsx
+++ b/FMEA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25515" windowHeight="15600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="2" r:id="rId1"/>
     <sheet name="FMEA" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="81">
   <si>
     <t>Subsystem</t>
   </si>
@@ -193,12 +193,6 @@
     <t>tumbling</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>communication problems, unexpected forces</t>
-  </si>
-  <si>
     <t>lost position information</t>
   </si>
   <si>
@@ -229,15 +223,9 @@
     <t>POWER</t>
   </si>
   <si>
-    <t>no power, no mission</t>
-  </si>
-  <si>
     <t>Battery underload</t>
   </si>
   <si>
-    <t>not enough charge</t>
-  </si>
-  <si>
     <t>software will not allow GRID to begin until battery loaded correctly</t>
   </si>
   <si>
@@ -245,6 +233,36 @@
   </si>
   <si>
     <t>explosion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermal knife </t>
+  </si>
+  <si>
+    <t>not enough power, no mission</t>
+  </si>
+  <si>
+    <t>communication problems, unexpected forces, insuficient power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPS fails and overloades battery </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test componet before launch. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passive control on only one axis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active control </t>
+  </si>
+  <si>
+    <t>Battery failure/dead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">no battery power,system only on when solar is powered </t>
   </si>
 </sst>
 </file>
@@ -613,6 +631,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -944,23 +967,23 @@
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="7" width="12.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="3"/>
+    <col min="2" max="7" width="12.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -973,7 +996,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -986,7 +1009,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -999,7 +1022,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
@@ -1012,7 +1035,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
@@ -1025,12 +1048,12 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>1</v>
       </c>
@@ -1043,7 +1066,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -1056,7 +1079,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>3</v>
       </c>
@@ -1069,7 +1092,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>4</v>
       </c>
@@ -1082,7 +1105,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>5</v>
       </c>
@@ -1095,7 +1118,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>6</v>
       </c>
@@ -1108,7 +1131,7 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -1131,7 +1154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
@@ -1154,7 +1177,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1177,7 +1200,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1200,7 +1223,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -1223,7 +1246,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>15</v>
       </c>
@@ -1246,7 +1269,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>29</v>
       </c>
@@ -1265,26 +1288,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="39.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="54.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="10.83203125" style="3" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="56.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="3"/>
+    <col min="6" max="6" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.875" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="10.875" style="3" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="56.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="11" customWidth="1"/>
+    <col min="19" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
@@ -1295,7 +1319,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
@@ -1327,7 +1351,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -1374,7 +1398,7 @@
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
@@ -1421,7 +1445,7 @@
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
@@ -1468,7 +1492,7 @@
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>50</v>
       </c>
@@ -1515,7 +1539,7 @@
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>54</v>
       </c>
@@ -1562,7 +1586,7 @@
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>56</v>
       </c>
@@ -1570,10 +1594,10 @@
         <v>42</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
@@ -1602,21 +1626,21 @@
         <v>unacceptable</v>
       </c>
       <c r="L8" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
@@ -1645,21 +1669,21 @@
         <v>high</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>9</v>
@@ -1688,25 +1712,25 @@
         <v>low</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>9</v>
@@ -1735,25 +1759,25 @@
         <v>unacceptable</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
@@ -1782,25 +1806,25 @@
         <v>moderate</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>9</v>
@@ -1829,14 +1853,14 @@
         <v>unacceptable</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G14" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -1862,7 +1886,7 @@
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G15" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -1888,7 +1912,7 @@
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G16" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -1910,7 +1934,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="7:11">
+    <row r="17" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G17" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -1932,7 +1956,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="7:11">
+    <row r="18" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G18" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -1954,7 +1978,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="7:11">
+    <row r="19" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G19" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -1976,7 +2000,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="7:11">
+    <row r="20" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G20" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -1998,7 +2022,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="7:11">
+    <row r="21" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2020,7 +2044,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="7:11">
+    <row r="22" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G22" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2042,7 +2066,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="7:11">
+    <row r="23" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2064,7 +2088,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="7:11">
+    <row r="24" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G24" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2086,7 +2110,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="7:11">
+    <row r="25" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G25" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2108,7 +2132,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="7:11">
+    <row r="26" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G26" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2130,7 +2154,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="7:11">
+    <row r="27" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2152,7 +2176,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="7:11">
+    <row r="28" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2174,7 +2198,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="7:11">
+    <row r="29" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G29" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2196,7 +2220,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="7:11">
+    <row r="30" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G30" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2218,7 +2242,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="7:11">
+    <row r="31" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G31" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2240,7 +2264,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="7:11">
+    <row r="32" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G32" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2262,7 +2286,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="7:11">
+    <row r="33" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G33" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2284,7 +2308,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="7:11">
+    <row r="34" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G34" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2306,7 +2330,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="7:11">
+    <row r="35" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G35" t="str">
         <f t="shared" ref="G35:G69" si="5">IF(E35="a",1,IF(E35="b",2,IF(E35="c",3,IF(E35="d",4,IF(E35="e",5," ")))))</f>
         <v xml:space="preserve"> </v>
@@ -2328,7 +2352,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="7:11">
+    <row r="36" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G36" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2350,7 +2374,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="7:11">
+    <row r="37" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G37" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2372,7 +2396,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="7:11">
+    <row r="38" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G38" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2394,7 +2418,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="7:11">
+    <row r="39" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G39" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2416,7 +2440,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="7:11">
+    <row r="40" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G40" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2438,7 +2462,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="7:11">
+    <row r="41" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G41" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2460,7 +2484,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="7:11">
+    <row r="42" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G42" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2482,7 +2506,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="7:11">
+    <row r="43" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G43" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2504,7 +2528,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="7:11">
+    <row r="44" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G44" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2526,7 +2550,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="7:11">
+    <row r="45" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G45" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2548,7 +2572,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="7:11">
+    <row r="46" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G46" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2570,7 +2594,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="7:11">
+    <row r="47" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G47" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2592,7 +2616,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="7:11">
+    <row r="48" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G48" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2614,7 +2638,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="7:11">
+    <row r="49" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G49" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2636,7 +2660,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="7:11">
+    <row r="50" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G50" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2658,7 +2682,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="7:11">
+    <row r="51" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G51" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2680,7 +2704,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="7:11">
+    <row r="52" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G52" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2702,7 +2726,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="7:11">
+    <row r="53" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G53" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2724,7 +2748,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="7:11">
+    <row r="54" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G54" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2746,7 +2770,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="7:11">
+    <row r="55" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G55" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2768,7 +2792,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="7:11">
+    <row r="56" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G56" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2790,7 +2814,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="7:11">
+    <row r="57" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G57" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2812,7 +2836,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="7:11">
+    <row r="58" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G58" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2834,7 +2858,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="7:11">
+    <row r="59" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G59" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2856,7 +2880,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="7:11">
+    <row r="60" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G60" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2878,7 +2902,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="7:11">
+    <row r="61" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G61" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2900,7 +2924,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="7:11">
+    <row r="62" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G62" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2922,7 +2946,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="7:11">
+    <row r="63" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G63" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2944,7 +2968,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="7:11">
+    <row r="64" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G64" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2966,7 +2990,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="7:11">
+    <row r="65" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G65" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2988,7 +3012,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="7:11">
+    <row r="66" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G66" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -3010,7 +3034,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="7:11">
+    <row r="67" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G67" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -3032,7 +3056,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="7:11">
+    <row r="68" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G68" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -3054,7 +3078,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="7:11">
+    <row r="69" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G69" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>

--- a/FMEA.xlsx
+++ b/FMEA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25515" windowHeight="15600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="2" r:id="rId1"/>
     <sheet name="FMEA" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -127,27 +127,18 @@
     <t>Leave these alone</t>
   </si>
   <si>
-    <t>radio failure</t>
-  </si>
-  <si>
     <t>communication is impossible</t>
   </si>
   <si>
     <t>Test components before launch. Ensure low vibration during launch.</t>
   </si>
   <si>
-    <t>hard drive failure</t>
-  </si>
-  <si>
     <t>data collection is impossible</t>
   </si>
   <si>
     <t>Make sure hard drive space worthy before launch.</t>
   </si>
   <si>
-    <t>failed ground connection</t>
-  </si>
-  <si>
     <t>ADNC</t>
   </si>
   <si>
@@ -166,15 +157,9 @@
     <t>COM</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
     <t>power outage, weather</t>
   </si>
   <si>
-    <t>files get stuck in code loop</t>
-  </si>
-  <si>
     <t>software bug</t>
   </si>
   <si>
@@ -184,27 +169,15 @@
     <t>Command failsafes such as clear buffer, load new file, and reboot</t>
   </si>
   <si>
-    <t>gyroscope status read failure</t>
-  </si>
-  <si>
     <t>mechanical damage, software bug</t>
   </si>
   <si>
-    <t>tumbling</t>
-  </si>
-  <si>
-    <t>lost position information</t>
-  </si>
-  <si>
     <t>could not get 4 GPS sattelite lock</t>
   </si>
   <si>
     <t>cannot record position: science mission critical</t>
   </si>
   <si>
-    <t>cannot get magnetic match</t>
-  </si>
-  <si>
     <t>magnetometer faulty read, damage</t>
   </si>
   <si>
@@ -235,9 +208,6 @@
     <t>explosion</t>
   </si>
   <si>
-    <t xml:space="preserve">Thermal knife </t>
-  </si>
-  <si>
     <t>not enough power, no mission</t>
   </si>
   <si>
@@ -253,16 +223,46 @@
     <t xml:space="preserve">Passive control on only one axis </t>
   </si>
   <si>
-    <t xml:space="preserve">Active control </t>
-  </si>
-  <si>
-    <t>Battery failure/dead</t>
-  </si>
-  <si>
     <t xml:space="preserve">None. </t>
   </si>
   <si>
     <t xml:space="preserve">no battery power,system only on when solar is powered </t>
+  </si>
+  <si>
+    <t>None.</t>
+  </si>
+  <si>
+    <t>Active control.</t>
+  </si>
+  <si>
+    <t>Radio failure</t>
+  </si>
+  <si>
+    <t>Hard drive failure</t>
+  </si>
+  <si>
+    <t>Failed ground connection</t>
+  </si>
+  <si>
+    <t>Files get stuck in code loop</t>
+  </si>
+  <si>
+    <t>Gyroscope status read failure</t>
+  </si>
+  <si>
+    <t>Tumbling</t>
+  </si>
+  <si>
+    <t>Lost position information</t>
+  </si>
+  <si>
+    <t>Cannot get magnetic match</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thermal knife </t>
+  </si>
+  <si>
+    <t>battery failure/dead</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="30">
     <dxf>
       <font>
         <b/>
@@ -457,6 +457,201 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF3366FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF008000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF008000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF6600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF008000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -967,23 +1162,23 @@
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="3"/>
-    <col min="2" max="7" width="12.875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11" style="3"/>
+    <col min="2" max="7" width="12.83203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -996,7 +1191,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1009,7 +1204,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -1022,7 +1217,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
@@ -1035,7 +1230,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
@@ -1048,12 +1243,12 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="17">
         <v>1</v>
       </c>
@@ -1066,7 +1261,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -1079,7 +1274,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="5">
         <v>3</v>
       </c>
@@ -1092,7 +1287,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="6">
         <v>4</v>
       </c>
@@ -1105,7 +1300,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="7">
         <v>5</v>
       </c>
@@ -1118,7 +1313,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="15">
         <v>6</v>
       </c>
@@ -1131,7 +1326,7 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -1154,7 +1349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
@@ -1177,7 +1372,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1200,7 +1395,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1223,7 +1418,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -1246,7 +1441,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
         <v>15</v>
       </c>
@@ -1269,7 +1464,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="14" t="s">
         <v>29</v>
       </c>
@@ -1288,27 +1483,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="28.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="54.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.875" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="10.875" style="3" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="56.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="10.83203125" style="3" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="56.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="18" width="11" customWidth="1"/>
-    <col min="19" max="16384" width="10.875" style="3"/>
+    <col min="19" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
@@ -1319,7 +1514,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
@@ -1351,18 +1546,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -1391,25 +1586,25 @@
         <v>unacceptable</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
@@ -1438,25 +1633,25 @@
         <v>unacceptable</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -1485,25 +1680,25 @@
         <v>low</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" s="3" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
@@ -1532,25 +1727,25 @@
         <v>low</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" s="3" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
@@ -1579,25 +1774,25 @@
         <v>low</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" s="3" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
@@ -1626,21 +1821,21 @@
         <v>unacceptable</v>
       </c>
       <c r="L8" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="B9" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
@@ -1669,21 +1864,21 @@
         <v>high</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="3" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>9</v>
@@ -1712,25 +1907,25 @@
         <v>low</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>9</v>
@@ -1759,25 +1954,25 @@
         <v>unacceptable</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
@@ -1806,25 +2001,25 @@
         <v>moderate</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>9</v>
@@ -1853,14 +2048,14 @@
         <v>unacceptable</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="G14" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -1886,7 +2081,7 @@
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="G15" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -1912,7 +2107,7 @@
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="G16" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -1934,7 +2129,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:11">
       <c r="G17" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -1956,7 +2151,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:11">
       <c r="G18" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -1978,7 +2173,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:11">
       <c r="G19" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2000,7 +2195,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:11">
       <c r="G20" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2022,7 +2217,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:11">
       <c r="G21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2044,7 +2239,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:11">
       <c r="G22" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2066,7 +2261,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:11">
       <c r="G23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2088,7 +2283,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:11">
       <c r="G24" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2110,7 +2305,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:11">
       <c r="G25" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2132,7 +2327,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:11">
       <c r="G26" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2154,7 +2349,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:11">
       <c r="G27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2176,7 +2371,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="7:11">
       <c r="G28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2198,7 +2393,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="7:11">
       <c r="G29" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2220,7 +2415,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="7:11">
       <c r="G30" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2242,7 +2437,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="7:11">
       <c r="G31" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2264,7 +2459,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="7:11">
       <c r="G32" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2286,7 +2481,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:11">
       <c r="G33" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2308,7 +2503,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:11">
       <c r="G34" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2330,7 +2525,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:11">
       <c r="G35" t="str">
         <f t="shared" ref="G35:G69" si="5">IF(E35="a",1,IF(E35="b",2,IF(E35="c",3,IF(E35="d",4,IF(E35="e",5," ")))))</f>
         <v xml:space="preserve"> </v>
@@ -2352,7 +2547,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:11">
       <c r="G36" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2374,7 +2569,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:11">
       <c r="G37" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2396,7 +2591,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:11">
       <c r="G38" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2418,7 +2613,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:11">
       <c r="G39" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2440,7 +2635,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:11">
       <c r="G40" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2462,7 +2657,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:11">
       <c r="G41" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2484,7 +2679,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="7:11">
       <c r="G42" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2506,7 +2701,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="7:11">
       <c r="G43" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2528,7 +2723,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="7:11">
       <c r="G44" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2550,7 +2745,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="7:11">
       <c r="G45" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2572,7 +2767,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="7:11">
       <c r="G46" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2594,7 +2789,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="7:11">
       <c r="G47" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2616,7 +2811,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="7:11">
       <c r="G48" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2638,7 +2833,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="7:11">
       <c r="G49" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2660,7 +2855,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="7:11">
       <c r="G50" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2682,7 +2877,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="7:11">
       <c r="G51" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2704,7 +2899,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="7:11">
       <c r="G52" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2726,7 +2921,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="7:11">
       <c r="G53" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2748,7 +2943,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="7:11">
       <c r="G54" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2770,7 +2965,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="7:11">
       <c r="G55" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2792,7 +2987,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="7:11">
       <c r="G56" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2814,7 +3009,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="7:11">
       <c r="G57" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2836,7 +3031,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="7:11">
       <c r="G58" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2858,7 +3053,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="7:11">
       <c r="G59" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2880,7 +3075,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="7:11">
       <c r="G60" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2902,7 +3097,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="7:11">
       <c r="G61" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2924,7 +3119,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="7:11">
       <c r="G62" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2946,7 +3141,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="7:11">
       <c r="G63" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2968,7 +3163,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="7:11">
       <c r="G64" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2990,7 +3185,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="7:11">
       <c r="G65" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -3012,7 +3207,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="7:11">
       <c r="G66" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -3034,7 +3229,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="7:11">
       <c r="G67" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -3056,7 +3251,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="7:11">
       <c r="G68" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -3078,7 +3273,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="7:11">
       <c r="G69" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -3105,53 +3300,53 @@
     <mergeCell ref="G2:J2"/>
   </mergeCells>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="beginsWith" dxfId="14" priority="13" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="29" priority="13" operator="beginsWith" text="E">
       <formula>LEFT(E1,LEN("E"))="E"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="13" priority="14" operator="beginsWith" text="D">
+    <cfRule type="beginsWith" dxfId="28" priority="14" operator="beginsWith" text="D">
       <formula>LEFT(E1,LEN("D"))="D"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="12" priority="15" operator="beginsWith" text="C">
+    <cfRule type="beginsWith" dxfId="27" priority="15" operator="beginsWith" text="C">
       <formula>LEFT(E1,LEN("C"))="C"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="11" priority="16" operator="beginsWith" text="B">
+    <cfRule type="beginsWith" dxfId="26" priority="16" operator="beginsWith" text="B">
       <formula>LEFT(E1,LEN("B"))="B"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="17" operator="beginsWith" text="A">
+    <cfRule type="beginsWith" dxfId="25" priority="17" operator="beginsWith" text="A">
       <formula>LEFT(E1,LEN("A"))="A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="unacceptable">
+    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="unacceptable">
       <formula>NOT(ISERROR(SEARCH("unacceptable",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="high">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="high">
       <formula>NOT(ISERROR(SEARCH("high",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="moderate">
+    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="moderate">
       <formula>NOT(ISERROR(SEARCH("moderate",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="low">
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="low">
       <formula>NOT(ISERROR(SEARCH("low",K1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/FMEA.xlsx
+++ b/FMEA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="2" r:id="rId1"/>
     <sheet name="FMEA" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -232,9 +232,6 @@
     <t>None.</t>
   </si>
   <si>
-    <t>Active control.</t>
-  </si>
-  <si>
     <t>Radio failure</t>
   </si>
   <si>
@@ -263,6 +260,9 @@
   </si>
   <si>
     <t>battery failure/dead</t>
+  </si>
+  <si>
+    <t>Active control, Hysteresis Rods.</t>
   </si>
 </sst>
 </file>
@@ -289,6 +289,7 @@
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -435,70 +436,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF008000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <font>
         <b/>
@@ -521,137 +459,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF008000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF6600"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF008000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1162,23 +970,23 @@
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="3"/>
-    <col min="2" max="7" width="12.83203125" style="3" customWidth="1"/>
+    <col min="2" max="7" width="12.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1191,7 +999,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1204,7 +1012,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -1217,7 +1025,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
@@ -1230,7 +1038,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
@@ -1243,12 +1051,12 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>1</v>
       </c>
@@ -1261,7 +1069,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -1274,7 +1082,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>3</v>
       </c>
@@ -1287,7 +1095,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>4</v>
       </c>
@@ -1300,7 +1108,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>5</v>
       </c>
@@ -1313,7 +1121,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>6</v>
       </c>
@@ -1326,7 +1134,7 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -1349,7 +1157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
@@ -1372,7 +1180,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1395,7 +1203,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1418,7 +1226,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -1441,7 +1249,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>15</v>
       </c>
@@ -1464,7 +1272,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>29</v>
       </c>
@@ -1484,26 +1292,26 @@
   <dimension ref="A1:V69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="28.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="54.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="10.83203125" style="3" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="56.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.875" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="10.875" style="3" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="56.625" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="18" width="11" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="3"/>
+    <col min="19" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
@@ -1514,7 +1322,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
@@ -1546,9 +1354,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>44</v>
@@ -1593,9 +1401,9 @@
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>44</v>
@@ -1640,9 +1448,9 @@
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>44</v>
@@ -1687,9 +1495,9 @@
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>44</v>
@@ -1734,9 +1542,9 @@
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>39</v>
@@ -1781,9 +1589,9 @@
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>39</v>
@@ -1821,12 +1629,12 @@
         <v>unacceptable</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>39</v>
@@ -1867,9 +1675,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>39</v>
@@ -1914,7 +1722,7 @@
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>56</v>
       </c>
@@ -1922,7 +1730,7 @@
         <v>57</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>62</v>
@@ -1961,7 +1769,7 @@
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>58</v>
       </c>
@@ -1969,7 +1777,7 @@
         <v>57</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>68</v>
@@ -2008,7 +1816,7 @@
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>60</v>
       </c>
@@ -2055,7 +1863,7 @@
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G14" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2081,7 +1889,7 @@
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G15" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2107,7 +1915,7 @@
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G16" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2129,7 +1937,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="7:11">
+    <row r="17" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G17" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2151,7 +1959,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="7:11">
+    <row r="18" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G18" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2173,7 +1981,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="7:11">
+    <row r="19" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G19" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2195,7 +2003,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="7:11">
+    <row r="20" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G20" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2217,7 +2025,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="7:11">
+    <row r="21" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2239,7 +2047,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="7:11">
+    <row r="22" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G22" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2261,7 +2069,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="7:11">
+    <row r="23" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2283,7 +2091,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="7:11">
+    <row r="24" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G24" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2305,7 +2113,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="7:11">
+    <row r="25" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G25" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2327,7 +2135,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="7:11">
+    <row r="26" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G26" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2349,7 +2157,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="7:11">
+    <row r="27" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2371,7 +2179,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="7:11">
+    <row r="28" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2393,7 +2201,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="7:11">
+    <row r="29" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G29" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2415,7 +2223,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="7:11">
+    <row r="30" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G30" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2437,7 +2245,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="7:11">
+    <row r="31" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G31" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2459,7 +2267,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="7:11">
+    <row r="32" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G32" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2481,7 +2289,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="7:11">
+    <row r="33" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G33" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2503,7 +2311,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="7:11">
+    <row r="34" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G34" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
@@ -2525,7 +2333,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="7:11">
+    <row r="35" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G35" t="str">
         <f t="shared" ref="G35:G69" si="5">IF(E35="a",1,IF(E35="b",2,IF(E35="c",3,IF(E35="d",4,IF(E35="e",5," ")))))</f>
         <v xml:space="preserve"> </v>
@@ -2547,7 +2355,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="7:11">
+    <row r="36" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G36" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2569,7 +2377,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="7:11">
+    <row r="37" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G37" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2591,7 +2399,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="7:11">
+    <row r="38" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G38" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2613,7 +2421,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="7:11">
+    <row r="39" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G39" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2635,7 +2443,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="7:11">
+    <row r="40" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G40" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2657,7 +2465,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="7:11">
+    <row r="41" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G41" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2679,7 +2487,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="7:11">
+    <row r="42" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G42" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2701,7 +2509,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="7:11">
+    <row r="43" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G43" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2723,7 +2531,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="7:11">
+    <row r="44" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G44" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2745,7 +2553,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="7:11">
+    <row r="45" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G45" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2767,7 +2575,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="7:11">
+    <row r="46" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G46" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2789,7 +2597,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="7:11">
+    <row r="47" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G47" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2811,7 +2619,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="7:11">
+    <row r="48" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G48" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2833,7 +2641,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="7:11">
+    <row r="49" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G49" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2855,7 +2663,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="7:11">
+    <row r="50" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G50" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2877,7 +2685,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="7:11">
+    <row r="51" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G51" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2899,7 +2707,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="7:11">
+    <row r="52" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G52" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2921,7 +2729,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="7:11">
+    <row r="53" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G53" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2943,7 +2751,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="7:11">
+    <row r="54" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G54" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2965,7 +2773,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="7:11">
+    <row r="55" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G55" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -2987,7 +2795,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="7:11">
+    <row r="56" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G56" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -3009,7 +2817,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="7:11">
+    <row r="57" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G57" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -3031,7 +2839,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="7:11">
+    <row r="58" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G58" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -3053,7 +2861,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="7:11">
+    <row r="59" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G59" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -3075,7 +2883,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="7:11">
+    <row r="60" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G60" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -3097,7 +2905,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="7:11">
+    <row r="61" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G61" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -3119,7 +2927,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="7:11">
+    <row r="62" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G62" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -3141,7 +2949,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="7:11">
+    <row r="63" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G63" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -3163,7 +2971,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="7:11">
+    <row r="64" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G64" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -3185,7 +2993,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="7:11">
+    <row r="65" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G65" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -3207,7 +3015,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="7:11">
+    <row r="66" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G66" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -3229,7 +3037,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="7:11">
+    <row r="67" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G67" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -3251,7 +3059,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="7:11">
+    <row r="68" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G68" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -3273,7 +3081,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="7:11">
+    <row r="69" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G69" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
@@ -3300,53 +3108,53 @@
     <mergeCell ref="G2:J2"/>
   </mergeCells>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="beginsWith" dxfId="29" priority="13" operator="beginsWith" text="E">
+    <cfRule type="beginsWith" dxfId="14" priority="13" operator="beginsWith" text="E">
       <formula>LEFT(E1,LEN("E"))="E"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="28" priority="14" operator="beginsWith" text="D">
+    <cfRule type="beginsWith" dxfId="13" priority="14" operator="beginsWith" text="D">
       <formula>LEFT(E1,LEN("D"))="D"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="27" priority="15" operator="beginsWith" text="C">
+    <cfRule type="beginsWith" dxfId="12" priority="15" operator="beginsWith" text="C">
       <formula>LEFT(E1,LEN("C"))="C"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="26" priority="16" operator="beginsWith" text="B">
+    <cfRule type="beginsWith" dxfId="11" priority="16" operator="beginsWith" text="B">
       <formula>LEFT(E1,LEN("B"))="B"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="25" priority="17" operator="beginsWith" text="A">
+    <cfRule type="beginsWith" dxfId="10" priority="17" operator="beginsWith" text="A">
       <formula>LEFT(E1,LEN("A"))="A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="unacceptable">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="unacceptable">
       <formula>NOT(ISERROR(SEARCH("unacceptable",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="high">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="high">
       <formula>NOT(ISERROR(SEARCH("high",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="moderate">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="moderate">
       <formula>NOT(ISERROR(SEARCH("moderate",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="low">
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="low">
       <formula>NOT(ISERROR(SEARCH("low",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
